--- a/biology/Botanique/Scorsonère/Scorsonère.xlsx
+++ b/biology/Botanique/Scorsonère/Scorsonère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scorson%C3%A8re</t>
+          <t>Scorsonère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scorzonera
-Scorzonera (les scorsonères) est un genre de plante à fleurs de la famille des Asteraceae (ou Composées). L'espèce la plus connue est Scorzonera hispanica, la scorsonère d'Espagne, ou salsifis noir. On dit aussi tout simplement la scorsonère. On en consomme les racines. La plupart des salsifis que l'on trouve dans le commerce sont en fait des scorsonères[1].
+Scorzonera (les scorsonères) est un genre de plante à fleurs de la famille des Asteraceae (ou Composées). L'espèce la plus connue est Scorzonera hispanica, la scorsonère d'Espagne, ou salsifis noir. On dit aussi tout simplement la scorsonère. On en consomme les racines. La plupart des salsifis que l'on trouve dans le commerce sont en fait des scorsonères.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scorson%C3%A8re</t>
+          <t>Scorsonère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Scorsonère, du genre féminin, est emprunté à l'italien scorzonera (scorza signifie écorce et nera noire), qui a donné aussi le castillan escorzonera. Dans les deux cas, le sens est le même : une espèce était censée soigner la morsure d'une vipère appelée scorzone en italien, et escorçó en catalan.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scorson%C3%A8re</t>
+          <t>Scorsonère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes herbacées vivaces.
 La tige est creuse et peut faire de 20 à 80 cm.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scorson%C3%A8re</t>
+          <t>Scorsonère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scorzonera aristata Ramond ex DC.
 Scorzonera austriaca Willd.
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scorson%C3%A8re</t>
+          <t>Scorsonère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces se trouvent en Europe et en Asie. Le centre de la biodiversité du genre est autour de la Méditerranée.
 </t>
